--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H2">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I2">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J2">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N2">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q2">
-        <v>0.07484184649355555</v>
+        <v>3.277127310009333</v>
       </c>
       <c r="R2">
-        <v>0.6735766184419999</v>
+        <v>29.494145790084</v>
       </c>
       <c r="S2">
-        <v>0.0001856957372686282</v>
+        <v>0.009686198917393545</v>
       </c>
       <c r="T2">
-        <v>0.0001856957372686282</v>
+        <v>0.009686198917393543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H3">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I3">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J3">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q3">
-        <v>1.940363020981778</v>
+        <v>7.099336731641333</v>
       </c>
       <c r="R3">
-        <v>17.463267188836</v>
+        <v>63.894030584772</v>
       </c>
       <c r="S3">
-        <v>0.004814380705866469</v>
+        <v>0.02098349598875994</v>
       </c>
       <c r="T3">
-        <v>0.004814380705866469</v>
+        <v>0.02098349598875994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H4">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I4">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J4">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N4">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q4">
-        <v>0.7741022608114444</v>
+        <v>5.372044778453999</v>
       </c>
       <c r="R4">
-        <v>6.966920347302999</v>
+        <v>48.348403006086</v>
       </c>
       <c r="S4">
-        <v>0.001920683371368594</v>
+        <v>0.01587814246896089</v>
       </c>
       <c r="T4">
-        <v>0.001920683371368594</v>
+        <v>0.01587814246896089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H5">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I5">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J5">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N5">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q5">
-        <v>0.1804038859715555</v>
+        <v>3.384746256263333</v>
       </c>
       <c r="R5">
-        <v>1.623634973744</v>
+        <v>30.46271630637</v>
       </c>
       <c r="S5">
-        <v>0.0004476136570801759</v>
+        <v>0.01000428803084137</v>
       </c>
       <c r="T5">
-        <v>0.0004476136570801759</v>
+        <v>0.01000428803084137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H6">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I6">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J6">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N6">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q6">
-        <v>2.028909310343222</v>
+        <v>8.209015005092665</v>
       </c>
       <c r="R6">
-        <v>18.260183793089</v>
+        <v>73.88113504583399</v>
       </c>
       <c r="S6">
-        <v>0.005034079567609419</v>
+        <v>0.02426336993754737</v>
       </c>
       <c r="T6">
-        <v>0.005034079567609419</v>
+        <v>0.02426336993754737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H7">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I7">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J7">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N7">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O7">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P7">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q7">
-        <v>0.6062678023188888</v>
+        <v>3.376589264068666</v>
       </c>
       <c r="R7">
-        <v>5.45641022087</v>
+        <v>30.389303376618</v>
       </c>
       <c r="S7">
-        <v>0.001504256666670177</v>
+        <v>0.00998017842462502</v>
       </c>
       <c r="T7">
-        <v>0.001504256666670178</v>
+        <v>0.009980178424625022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I8">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J8">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N8">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q8">
-        <v>0.5146485221742221</v>
+        <v>6.159206470396445</v>
       </c>
       <c r="R8">
-        <v>4.631836699567999</v>
+        <v>55.43285823356799</v>
       </c>
       <c r="S8">
-        <v>0.001276933176248948</v>
+        <v>0.01820475477511658</v>
       </c>
       <c r="T8">
-        <v>0.001276933176248948</v>
+        <v>0.01820475477511658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I9">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J9">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q9">
         <v>13.34286910352711</v>
@@ -1013,10 +1013,10 @@
         <v>120.085821931744</v>
       </c>
       <c r="S9">
-        <v>0.03310599659872925</v>
+        <v>0.039437492669499</v>
       </c>
       <c r="T9">
-        <v>0.03310599659872925</v>
+        <v>0.039437492669499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I10">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J10">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N10">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q10">
-        <v>5.323099351545777</v>
+        <v>10.096505209808</v>
       </c>
       <c r="R10">
-        <v>47.90789416391199</v>
+        <v>90.86854688827198</v>
       </c>
       <c r="S10">
-        <v>0.0132075423703578</v>
+        <v>0.02984222112274972</v>
       </c>
       <c r="T10">
-        <v>0.0132075423703578</v>
+        <v>0.02984222112274972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I11">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J11">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N11">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q11">
-        <v>1.240543862286222</v>
+        <v>6.361471212471111</v>
       </c>
       <c r="R11">
-        <v>11.164894760576</v>
+        <v>57.25324091224</v>
       </c>
       <c r="S11">
-        <v>0.003078006729044928</v>
+        <v>0.01880258828610854</v>
       </c>
       <c r="T11">
-        <v>0.003078006729044928</v>
+        <v>0.01880258828610853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I12">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J12">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N12">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q12">
-        <v>13.95175596427289</v>
+        <v>15.42845716750755</v>
       </c>
       <c r="R12">
-        <v>125.565803678456</v>
+        <v>138.856114507568</v>
       </c>
       <c r="S12">
-        <v>0.03461675160834948</v>
+        <v>0.04560186131814901</v>
       </c>
       <c r="T12">
-        <v>0.03461675160834948</v>
+        <v>0.045601861318149</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I13">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J13">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N13">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O13">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P13">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q13">
-        <v>4.168988916275555</v>
+        <v>6.346140529726221</v>
       </c>
       <c r="R13">
-        <v>37.52090024647999</v>
+        <v>57.115264767536</v>
       </c>
       <c r="S13">
-        <v>0.01034399212129527</v>
+        <v>0.01875727541646417</v>
       </c>
       <c r="T13">
-        <v>0.01034399212129527</v>
+        <v>0.01875727541646417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H14">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I14">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J14">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N14">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q14">
-        <v>1.408748091307555</v>
+        <v>14.95293430807734</v>
       </c>
       <c r="R14">
-        <v>12.678732821768</v>
+        <v>134.576408772696</v>
       </c>
       <c r="S14">
-        <v>0.003495350899227945</v>
+        <v>0.04419635931273692</v>
       </c>
       <c r="T14">
-        <v>0.003495350899227945</v>
+        <v>0.04419635931273691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H15">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I15">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J15">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q15">
-        <v>36.52345352659378</v>
+        <v>32.39297889188533</v>
       </c>
       <c r="R15">
-        <v>328.711081739344</v>
+        <v>291.536810026968</v>
       </c>
       <c r="S15">
-        <v>0.09062108897595561</v>
+        <v>0.09574386570683398</v>
       </c>
       <c r="T15">
-        <v>0.09062108897595561</v>
+        <v>0.09574386570683396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H16">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I16">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J16">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N16">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q16">
-        <v>14.57092700791244</v>
+        <v>24.511660693476</v>
       </c>
       <c r="R16">
-        <v>131.138343071212</v>
+        <v>220.604946241284</v>
       </c>
       <c r="S16">
-        <v>0.03615302347804385</v>
+        <v>0.07244906859355089</v>
       </c>
       <c r="T16">
-        <v>0.03615302347804385</v>
+        <v>0.07244906859355089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H17">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I17">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J17">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N17">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q17">
-        <v>3.395742381219555</v>
+        <v>15.44397993475334</v>
       </c>
       <c r="R17">
-        <v>30.561681430976</v>
+        <v>138.99581941278</v>
       </c>
       <c r="S17">
-        <v>0.008425431955492835</v>
+        <v>0.045647741931585</v>
       </c>
       <c r="T17">
-        <v>0.008425431955492835</v>
+        <v>0.04564774193158499</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H18">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I18">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J18">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N18">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q18">
-        <v>38.19016034870622</v>
+        <v>37.45623849591066</v>
       </c>
       <c r="R18">
-        <v>343.711443138356</v>
+        <v>337.106146463196</v>
       </c>
       <c r="S18">
-        <v>0.09475648069386937</v>
+        <v>0.1107093324267866</v>
       </c>
       <c r="T18">
-        <v>0.09475648069386937</v>
+        <v>0.1107093324267866</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H19">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I19">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J19">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N19">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O19">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P19">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q19">
-        <v>11.41177896260889</v>
+        <v>15.40676106685467</v>
       </c>
       <c r="R19">
-        <v>102.70601066348</v>
+        <v>138.660849601692</v>
       </c>
       <c r="S19">
-        <v>0.02831462353338316</v>
+        <v>0.04553773419497812</v>
       </c>
       <c r="T19">
-        <v>0.02831462353338316</v>
+        <v>0.04553773419497812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H20">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I20">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J20">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N20">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q20">
-        <v>0.7303261682513333</v>
+        <v>5.347369666436445</v>
       </c>
       <c r="R20">
-        <v>6.572935514261999</v>
+        <v>48.126326997928</v>
       </c>
       <c r="S20">
-        <v>0.001812067213917301</v>
+        <v>0.01580521028760163</v>
       </c>
       <c r="T20">
-        <v>0.001812067213917301</v>
+        <v>0.01580521028760163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H21">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I21">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J21">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q21">
-        <v>18.93456610871067</v>
+        <v>11.58416329284711</v>
       </c>
       <c r="R21">
-        <v>170.411094978396</v>
+        <v>104.257469635624</v>
       </c>
       <c r="S21">
-        <v>0.04697997681980452</v>
+        <v>0.03423928927123864</v>
       </c>
       <c r="T21">
-        <v>0.04697997681980452</v>
+        <v>0.03423928927123864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H22">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I22">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J22">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N22">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q22">
-        <v>7.553890830603667</v>
+        <v>8.765698301467998</v>
       </c>
       <c r="R22">
-        <v>67.985017475433</v>
+        <v>78.89128471321199</v>
       </c>
       <c r="S22">
-        <v>0.01874252697862637</v>
+        <v>0.02590875769108767</v>
       </c>
       <c r="T22">
-        <v>0.01874252697862637</v>
+        <v>0.02590875769108767</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H23">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I23">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J23">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N23">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q23">
-        <v>1.760427955109334</v>
+        <v>5.522974162171112</v>
       </c>
       <c r="R23">
-        <v>15.843851595984</v>
+        <v>49.70676745954</v>
       </c>
       <c r="S23">
-        <v>0.00436793027361344</v>
+        <v>0.01632424415951725</v>
       </c>
       <c r="T23">
-        <v>0.00436793027361344</v>
+        <v>0.01632424415951725</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H24">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I24">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J24">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N24">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q24">
-        <v>19.79862378836433</v>
+        <v>13.39485277104755</v>
       </c>
       <c r="R24">
-        <v>178.187614095279</v>
+        <v>120.553674939428</v>
       </c>
       <c r="S24">
-        <v>0.04912385535010941</v>
+        <v>0.03959114069608642</v>
       </c>
       <c r="T24">
-        <v>0.04912385535010941</v>
+        <v>0.03959114069608642</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H25">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I25">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J25">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N25">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O25">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P25">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q25">
-        <v>5.916118612063333</v>
+        <v>5.509664196306222</v>
       </c>
       <c r="R25">
-        <v>53.24506750857</v>
+        <v>49.586977766756</v>
       </c>
       <c r="S25">
-        <v>0.01467892708299696</v>
+        <v>0.01628490391888721</v>
       </c>
       <c r="T25">
-        <v>0.01467892708299697</v>
+        <v>0.01628490391888721</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H26">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I26">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J26">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N26">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q26">
-        <v>0.1734050972246667</v>
+        <v>1.494827019842667</v>
       </c>
       <c r="R26">
-        <v>1.560645875022</v>
+        <v>13.453443178584</v>
       </c>
       <c r="S26">
-        <v>0.0004302484356535129</v>
+        <v>0.004418257361277008</v>
       </c>
       <c r="T26">
-        <v>0.0004302484356535129</v>
+        <v>0.004418257361277008</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H27">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I27">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J27">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.531156</v>
       </c>
       <c r="O27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q27">
-        <v>4.495731386497334</v>
+        <v>3.238287489474667</v>
       </c>
       <c r="R27">
-        <v>40.461582478476</v>
+        <v>29.144587405272</v>
       </c>
       <c r="S27">
-        <v>0.0111546974519024</v>
+        <v>0.009571400134183143</v>
       </c>
       <c r="T27">
-        <v>0.0111546974519024</v>
+        <v>0.009571400134183143</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H28">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I28">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J28">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N28">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q28">
-        <v>1.793559139530333</v>
+        <v>2.450401503203999</v>
       </c>
       <c r="R28">
-        <v>16.142032255773</v>
+        <v>22.053613528836</v>
       </c>
       <c r="S28">
-        <v>0.004450134548439425</v>
+        <v>0.007242647032667917</v>
       </c>
       <c r="T28">
-        <v>0.004450134548439425</v>
+        <v>0.007242647032667917</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H29">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I29">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J29">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N29">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q29">
-        <v>0.4179874609226666</v>
+        <v>1.543916265846667</v>
       </c>
       <c r="R29">
-        <v>3.761887148304</v>
+        <v>13.89524639262</v>
       </c>
       <c r="S29">
-        <v>0.001037100143323696</v>
+        <v>0.004563350351728531</v>
       </c>
       <c r="T29">
-        <v>0.001037100143323696</v>
+        <v>0.004563350351728531</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H30">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I30">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J30">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N30">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q30">
-        <v>4.700889044077667</v>
+        <v>3.744455517009333</v>
       </c>
       <c r="R30">
-        <v>42.308001396699</v>
+        <v>33.700099653084</v>
       </c>
       <c r="S30">
-        <v>0.01166372955447038</v>
+        <v>0.01106748000430315</v>
       </c>
       <c r="T30">
-        <v>0.01166372955447038</v>
+        <v>0.01106748000430315</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H31">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I31">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J31">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N31">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O31">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P31">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q31">
-        <v>1.404694460796666</v>
+        <v>1.540195539985333</v>
       </c>
       <c r="R31">
-        <v>12.64225014717</v>
+        <v>13.861759859868</v>
       </c>
       <c r="S31">
-        <v>0.003485293131527105</v>
+        <v>0.004552353009422088</v>
       </c>
       <c r="T31">
-        <v>0.003485293131527106</v>
+        <v>0.004552353009422088</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H32">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I32">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J32">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N32">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q32">
-        <v>2.479737959293111</v>
+        <v>4.86196538556</v>
       </c>
       <c r="R32">
-        <v>22.317641633638</v>
+        <v>43.75768847003999</v>
       </c>
       <c r="S32">
-        <v>0.006152664453883941</v>
+        <v>0.01437050178373511</v>
       </c>
       <c r="T32">
-        <v>0.006152664453883942</v>
+        <v>0.01437050178373511</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H33">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I33">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J33">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.531156</v>
       </c>
       <c r="O33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q33">
-        <v>64.29012729331156</v>
+        <v>10.53261780348</v>
       </c>
       <c r="R33">
-        <v>578.611145639804</v>
+        <v>94.79356023131999</v>
       </c>
       <c r="S33">
-        <v>0.1595150727321169</v>
+        <v>0.03113123828109607</v>
       </c>
       <c r="T33">
-        <v>0.159515072732117</v>
+        <v>0.03113123828109607</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H34">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I34">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J34">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N34">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q34">
-        <v>25.64836185160189</v>
+        <v>7.969997284739998</v>
       </c>
       <c r="R34">
-        <v>230.835256664417</v>
+        <v>71.72997556265999</v>
       </c>
       <c r="S34">
-        <v>0.06363808065820345</v>
+        <v>0.02355690571900857</v>
       </c>
       <c r="T34">
-        <v>0.06363808065820346</v>
+        <v>0.02355690571900858</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H35">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I35">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J35">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N35">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q35">
-        <v>5.977329328535111</v>
+        <v>5.0216294883</v>
       </c>
       <c r="R35">
-        <v>53.795963956816</v>
+        <v>45.1946653947</v>
       </c>
       <c r="S35">
-        <v>0.01483080159781063</v>
+        <v>0.01484242066658815</v>
       </c>
       <c r="T35">
-        <v>0.01483080159781063</v>
+        <v>0.01484242066658815</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H36">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I36">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J36">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N36">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q36">
-        <v>67.22393511836344</v>
+        <v>12.17894302806</v>
       </c>
       <c r="R36">
-        <v>605.0154160652711</v>
+        <v>109.61048725254</v>
       </c>
       <c r="S36">
-        <v>0.1667943640992051</v>
+        <v>0.03599727859613011</v>
       </c>
       <c r="T36">
-        <v>0.1667943640992052</v>
+        <v>0.03599727859613011</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H37">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I37">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J37">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N37">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O37">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P37">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q37">
-        <v>20.08749587754778</v>
+        <v>5.00952772662</v>
       </c>
       <c r="R37">
-        <v>180.78746289793</v>
+        <v>45.08574953958</v>
       </c>
       <c r="S37">
-        <v>0.04984059762853337</v>
+        <v>0.01480665151275474</v>
       </c>
       <c r="T37">
-        <v>0.04984059762853338</v>
+        <v>0.01480665151275475</v>
       </c>
     </row>
   </sheetData>
